--- a/public/StructureDefinition-AppleHealthKitQuantitySample.xlsx
+++ b/public/StructureDefinition-AppleHealthKitQuantitySample.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/sphr/StructureDefinition/AppleHealthKitQuantitySample</t>
+    <t>http://hl7.org/fhir/uv/phr/StructureDefinition/AppleHealthKitQuantitySample</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T01:07:49-06:00</t>
+    <t>2024-12-13T21:36:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/sphr/StructureDefinition/AppleHealthKitSample</t>
+    <t>http://hl7.org/fhir/uv/phr/StructureDefinition/AppleHealthKitSample</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -636,7 +636,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/sphr/ValueSet/apple-health-kit-sample-type-value-set</t>
+    <t>http://hl7.org/fhir/uv/phr/ValueSet/apple-health-kit-sample-type-value-set</t>
   </si>
   <si>
     <t>AppleHealthKitSample.sampleType</t>
@@ -685,7 +685,7 @@
     <t>The quantity type for this sample.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/sphr/ValueSet/apple-health-kit-quantity-type-value-set</t>
+    <t>http://hl7.org/fhir/uv/phr/ValueSet/apple-health-kit-quantity-type-value-set</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.65234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.71875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>

--- a/public/StructureDefinition-AppleHealthKitQuantitySample.xlsx
+++ b/public/StructureDefinition-AppleHealthKitQuantitySample.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T21:36:12-06:00</t>
+    <t>2024-12-15T10:45:04-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-AppleHealthKitQuantitySample.xlsx
+++ b/public/StructureDefinition-AppleHealthKitQuantitySample.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T10:45:04-06:00</t>
+    <t>2024-12-15T12:17:17-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-AppleHealthKitQuantitySample.xlsx
+++ b/public/StructureDefinition-AppleHealthKitQuantitySample.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T12:17:17-06:00</t>
+    <t>2024-12-15T12:20:20-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-AppleHealthKitQuantitySample.xlsx
+++ b/public/StructureDefinition-AppleHealthKitQuantitySample.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T12:20:20-06:00</t>
+    <t>2024-12-15T20:08:17-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-AppleHealthKitQuantitySample.xlsx
+++ b/public/StructureDefinition-AppleHealthKitQuantitySample.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T20:08:17-06:00</t>
+    <t>2024-12-18T01:48:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-AppleHealthKitQuantitySample.xlsx
+++ b/public/StructureDefinition-AppleHealthKitQuantitySample.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T01:48:59-06:00</t>
+    <t>2024-12-18T11:20:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
